--- a/GMMHMM/grupo2/X_test.xlsx
+++ b/GMMHMM/grupo2/X_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RMS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ADIm11</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -456,144 +459,146 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>-0.634441703</v>
+        <v>-0.7170444859158436</v>
       </c>
       <c r="C2">
-        <v>-0.9954120999999999</v>
+        <v>-0.9626627575504668</v>
       </c>
       <c r="D2">
-        <v>-1.886447154</v>
+        <v>-1.326370565969052</v>
       </c>
       <c r="E2">
-        <v>-1.228386443</v>
+        <v>-0.3508826171547983</v>
       </c>
       <c r="F2">
-        <v>-1.379942984</v>
+        <v>-0.1116572877339215</v>
       </c>
       <c r="G2">
-        <v>-1.61296976</v>
+        <v>0.3025477387642772</v>
       </c>
       <c r="H2">
-        <v>-1.006297695</v>
+        <v>0.02227960656881003</v>
       </c>
       <c r="I2">
-        <v>-1.1098097</v>
+        <v>-0.8292441429574355</v>
       </c>
       <c r="J2">
-        <v>-0.650642854</v>
+        <v>-0.3231513895542691</v>
       </c>
       <c r="K2">
-        <v>-0.510263141</v>
+        <v>-0.6051667266971232</v>
       </c>
       <c r="L2">
-        <v>-0.7082174179999999</v>
+        <v>0.4240250088644789</v>
       </c>
       <c r="M2">
-        <v>-0.663199388</v>
+        <v>0.5689230922157072</v>
       </c>
       <c r="N2">
-        <v>-0.438472235</v>
+        <v>0.5941888100937924</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0.452139402</v>
+        <v>1.088576992162783</v>
       </c>
       <c r="C3">
-        <v>0.535551136</v>
+        <v>1.113879672048004</v>
       </c>
       <c r="D3">
-        <v>0.25977125</v>
+        <v>1.391852302160855</v>
       </c>
       <c r="E3">
-        <v>-0.209464127</v>
+        <v>1.097675066956605</v>
       </c>
       <c r="F3">
-        <v>0.553605938</v>
+        <v>0.6193999948385083</v>
       </c>
       <c r="G3">
-        <v>-0.053446825</v>
+        <v>1.260478162207732</v>
       </c>
       <c r="H3">
-        <v>0.46669286</v>
+        <v>0.2829759842181138</v>
       </c>
       <c r="I3">
-        <v>1.000748395</v>
+        <v>-0.2048732487660765</v>
       </c>
       <c r="J3">
-        <v>0.385696359</v>
+        <v>1.280068775920671</v>
       </c>
       <c r="K3">
-        <v>0.256291393</v>
+        <v>0.4598623887690349</v>
       </c>
       <c r="L3">
-        <v>0.333589821</v>
+        <v>0.7524404323814086</v>
       </c>
       <c r="M3">
-        <v>0.20943043</v>
+        <v>0.802791065925304</v>
       </c>
       <c r="N3">
-        <v>0.293598999</v>
+        <v>0.7880756782855436</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0.09099733199999999</v>
+        <v>-1.13941715647749</v>
       </c>
       <c r="C4">
-        <v>0.165123739</v>
+        <v>-1.061880112579847</v>
       </c>
       <c r="D4">
-        <v>1.033777922</v>
+        <v>-0.3185430159423427</v>
       </c>
       <c r="E4">
-        <v>0.62781765</v>
+        <v>-0.00493742831527194</v>
       </c>
       <c r="F4">
-        <v>0.7088679729999999</v>
+        <v>-0.3473981302948528</v>
       </c>
       <c r="G4">
-        <v>0.9639872290000001</v>
+        <v>0.2431232885674622</v>
       </c>
       <c r="H4">
-        <v>-0.570432089</v>
+        <v>-0.497963790472687</v>
       </c>
       <c r="I4">
-        <v>-0.6886823870000001</v>
+        <v>-0.6528323163413656</v>
       </c>
       <c r="J4">
-        <v>-0.226930379</v>
+        <v>-0.3835932772458677</v>
       </c>
       <c r="K4">
-        <v>0.2216372</v>
+        <v>-0.06531649189307247</v>
       </c>
       <c r="L4">
-        <v>-0.154145444</v>
+        <v>0.263425614494407</v>
       </c>
       <c r="M4">
-        <v>0.244069248</v>
+        <v>0.3977142755814441</v>
       </c>
       <c r="N4">
-        <v>0.37543717</v>
+        <v>0.5535369778544057</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -601,46 +606,46 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09215310199999999</v>
+        <v>1.168895327646786</v>
       </c>
       <c r="C5">
-        <v>0.166345388</v>
+        <v>1.124790058217134</v>
       </c>
       <c r="D5">
-        <v>1.123550977</v>
+        <v>-0.108837563652328</v>
       </c>
       <c r="E5">
-        <v>0.722292268</v>
+        <v>-0.527461071075682</v>
       </c>
       <c r="F5">
-        <v>0.226448629</v>
+        <v>-0.8652942322810397</v>
       </c>
       <c r="G5">
-        <v>0.440220667</v>
+        <v>0.1168204941201648</v>
       </c>
       <c r="H5">
-        <v>-0.369985731</v>
+        <v>-0.723641543470295</v>
       </c>
       <c r="I5">
-        <v>-0.9319166590000001</v>
+        <v>-0.498731630075758</v>
       </c>
       <c r="J5">
-        <v>-0.109839934</v>
+        <v>-1.025476842083122</v>
       </c>
       <c r="K5">
-        <v>-0.160054501</v>
+        <v>-1.622354741293647</v>
       </c>
       <c r="L5">
-        <v>-0.307964711</v>
+        <v>-2.117899344682976</v>
       </c>
       <c r="M5">
-        <v>0.320517371</v>
+        <v>-2.105917768685274</v>
       </c>
       <c r="N5">
-        <v>0.239072909</v>
+        <v>-2.604525295334807</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -648,46 +653,46 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.09852779099999999</v>
+        <v>1.084148553489448</v>
       </c>
       <c r="C6">
-        <v>0.16546092</v>
+        <v>1.096588651912747</v>
       </c>
       <c r="D6">
-        <v>-0.387068551</v>
+        <v>0.4103411666276454</v>
       </c>
       <c r="E6">
-        <v>-1.193796124</v>
+        <v>0.02692079055893389</v>
       </c>
       <c r="F6">
-        <v>-0.973299646</v>
+        <v>-0.3654507667787238</v>
       </c>
       <c r="G6">
-        <v>0.158243594</v>
+        <v>0.255985997385492</v>
       </c>
       <c r="H6">
-        <v>-0.246942094</v>
+        <v>-0.170349196938015</v>
       </c>
       <c r="I6">
-        <v>-0.06937636599999999</v>
+        <v>0.1184074125783467</v>
       </c>
       <c r="J6">
-        <v>0.302392297</v>
+        <v>-0.09407802617016045</v>
       </c>
       <c r="K6">
-        <v>0.218392693</v>
+        <v>-0.7608731938203582</v>
       </c>
       <c r="L6">
-        <v>-1.0860507</v>
+        <v>-1.741872353831748</v>
       </c>
       <c r="M6">
-        <v>-1.240671693</v>
+        <v>-1.936557524428362</v>
       </c>
       <c r="N6">
-        <v>-1.706251922</v>
+        <v>-2.001350799166149</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -695,46 +700,46 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>0.08317348299999999</v>
+        <v>-0.8903294304691076</v>
       </c>
       <c r="C7">
-        <v>0.145432414</v>
+        <v>-1.00739468834947</v>
       </c>
       <c r="D7">
-        <v>0.225508963</v>
+        <v>-0.7484213305595308</v>
       </c>
       <c r="E7">
-        <v>-0.8570305840000001</v>
+        <v>0.1115915246707709</v>
       </c>
       <c r="F7">
-        <v>-0.9137197909999999</v>
+        <v>0.1855962737291569</v>
       </c>
       <c r="G7">
-        <v>0.131136623</v>
+        <v>0.6953621033044928</v>
       </c>
       <c r="H7">
-        <v>-0.7255018679999999</v>
+        <v>0.1702216613658133</v>
       </c>
       <c r="I7">
-        <v>-0.5142482350000001</v>
+        <v>-0.2583615203372818</v>
       </c>
       <c r="J7">
-        <v>-0.349673186</v>
+        <v>0.04432281253928385</v>
       </c>
       <c r="K7">
-        <v>-1.01266271</v>
+        <v>-0.2161966413060894</v>
       </c>
       <c r="L7">
-        <v>-2.140702952</v>
+        <v>0.3946079152495584</v>
       </c>
       <c r="M7">
-        <v>-2.623220389</v>
+        <v>0.5572839498761287</v>
       </c>
       <c r="N7">
-        <v>-3.301840245</v>
+        <v>0.6264865797433866</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -742,187 +747,187 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>-0.8492548329999999</v>
+        <v>-1.112188620417129</v>
       </c>
       <c r="C8">
-        <v>-0.8901110990000001</v>
+        <v>-1.052639041820789</v>
       </c>
       <c r="D8">
-        <v>-0.113791962</v>
+        <v>0.1521366645032375</v>
       </c>
       <c r="E8">
-        <v>0.696699691</v>
+        <v>-0.1063075991169151</v>
       </c>
       <c r="F8">
-        <v>1.330175595</v>
+        <v>-0.633907517591107</v>
       </c>
       <c r="G8">
-        <v>0.55119769</v>
+        <v>-0.3105400581278053</v>
       </c>
       <c r="H8">
-        <v>1.259601198</v>
+        <v>-1.076662870880767</v>
       </c>
       <c r="I8">
-        <v>1.053115556</v>
+        <v>-2.234195617877839</v>
       </c>
       <c r="J8">
-        <v>0.915666889</v>
+        <v>-2.024776068498603</v>
       </c>
       <c r="K8">
-        <v>1.195823559</v>
+        <v>-1.05364572866942</v>
       </c>
       <c r="L8">
-        <v>1.10706505</v>
+        <v>-0.397067076086726</v>
       </c>
       <c r="M8">
-        <v>0.95634344</v>
+        <v>-0.1012654246438619</v>
       </c>
       <c r="N8">
-        <v>0.80150649</v>
+        <v>-0.1105577153171547</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>-1.021149568</v>
+        <v>0.09099733199999999</v>
       </c>
       <c r="C9">
-        <v>-1.06037349</v>
+        <v>0.165123739</v>
       </c>
       <c r="D9">
-        <v>-0.359249971</v>
+        <v>1.033777922</v>
       </c>
       <c r="E9">
-        <v>-0.58641394</v>
+        <v>0.62781765</v>
       </c>
       <c r="F9">
-        <v>-0.574053245</v>
+        <v>0.7088679729999999</v>
       </c>
       <c r="G9">
-        <v>-0.611888122</v>
+        <v>0.9639872290000001</v>
       </c>
       <c r="H9">
-        <v>-0.924519145</v>
+        <v>-0.570432089</v>
       </c>
       <c r="I9">
-        <v>-0.32055631</v>
+        <v>-0.6886823870000001</v>
       </c>
       <c r="J9">
-        <v>-0.50507209</v>
+        <v>-0.226930379</v>
       </c>
       <c r="K9">
-        <v>-0.252384891</v>
+        <v>0.2216372</v>
       </c>
       <c r="L9">
-        <v>-0.524798866</v>
+        <v>-0.154145444</v>
       </c>
       <c r="M9">
-        <v>-0.424018326</v>
+        <v>0.244069248</v>
       </c>
       <c r="N9">
-        <v>-0.09788446199999999</v>
+        <v>0.37543717</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-0.865035972</v>
+        <v>1.109438579590896</v>
       </c>
       <c r="C10">
-        <v>-0.96684552</v>
+        <v>1.099713850078085</v>
       </c>
       <c r="D10">
-        <v>-1.121615431</v>
+        <v>-0.3721542361956252</v>
       </c>
       <c r="E10">
-        <v>-1.222799638</v>
+        <v>-0.8638457975380623</v>
       </c>
       <c r="F10">
-        <v>-1.61779278</v>
+        <v>-1.116670404868982</v>
       </c>
       <c r="G10">
-        <v>-1.413328853</v>
+        <v>-0.1384535856044998</v>
       </c>
       <c r="H10">
-        <v>-1.485734227</v>
+        <v>0.08506005601941405</v>
       </c>
       <c r="I10">
-        <v>-1.599473251</v>
+        <v>-0.1424232843816636</v>
       </c>
       <c r="J10">
-        <v>-1.243944798</v>
+        <v>-0.6322272669356886</v>
       </c>
       <c r="K10">
-        <v>-1.126462166</v>
+        <v>-1.594814530196119</v>
       </c>
       <c r="L10">
-        <v>-1.652334645</v>
+        <v>-2.152477303639709</v>
       </c>
       <c r="M10">
-        <v>-1.414603224</v>
+        <v>-2.090516287548417</v>
       </c>
       <c r="N10">
-        <v>-1.03612878</v>
+        <v>-2.176585305596301</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.123891484</v>
+        <v>-1.044096069467892</v>
       </c>
       <c r="C11">
-        <v>0.159900513</v>
+        <v>-0.9944797556824532</v>
       </c>
       <c r="D11">
-        <v>-0.253457431</v>
+        <v>-0.4346623413973897</v>
       </c>
       <c r="E11">
-        <v>-0.982034101</v>
+        <v>-0.4656609981401171</v>
       </c>
       <c r="F11">
-        <v>-1.063290512</v>
+        <v>-0.3972448757409678</v>
       </c>
       <c r="G11">
-        <v>0.153703172</v>
+        <v>-0.9173023484438549</v>
       </c>
       <c r="H11">
-        <v>-0.902966589</v>
+        <v>-0.6683828193368909</v>
       </c>
       <c r="I11">
-        <v>-0.663793521</v>
+        <v>-0.6552500014310596</v>
       </c>
       <c r="J11">
-        <v>-0.9482172040000001</v>
+        <v>-0.7334345699974137</v>
       </c>
       <c r="K11">
-        <v>-1.586744847</v>
+        <v>-1.761061959828618</v>
       </c>
       <c r="L11">
-        <v>-2.645994708</v>
+        <v>-0.4595386133116331</v>
       </c>
       <c r="M11">
-        <v>-2.926667139</v>
+        <v>-0.4046128729647322</v>
       </c>
       <c r="N11">
-        <v>-3.717505986</v>
+        <v>0.06517742000869589</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -930,46 +935,46 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>-1.019851319</v>
+        <v>-0.3543593665836199</v>
       </c>
       <c r="C12">
-        <v>-1.054716874</v>
+        <v>-0.607770836055068</v>
       </c>
       <c r="D12">
-        <v>-0.449691954</v>
+        <v>-1.023579362476468</v>
       </c>
       <c r="E12">
-        <v>-0.7478200970000001</v>
+        <v>-0.955669614345772</v>
       </c>
       <c r="F12">
-        <v>-0.477771082</v>
+        <v>-1.000502683286009</v>
       </c>
       <c r="G12">
-        <v>-0.763911725</v>
+        <v>-1.440570144316475</v>
       </c>
       <c r="H12">
-        <v>-0.7215417709999999</v>
+        <v>-0.6574608486657882</v>
       </c>
       <c r="I12">
-        <v>-0.231125737</v>
+        <v>-0.3437044833041243</v>
       </c>
       <c r="J12">
-        <v>-0.187669935</v>
+        <v>-0.3136140931433612</v>
       </c>
       <c r="K12">
-        <v>0.07131941999999999</v>
+        <v>0.1547769421110219</v>
       </c>
       <c r="L12">
-        <v>-0.324976385</v>
+        <v>0.2203860173098343</v>
       </c>
       <c r="M12">
-        <v>-0.369714045</v>
+        <v>0.1150587133144156</v>
       </c>
       <c r="N12">
-        <v>-0.021905587</v>
+        <v>-0.0393656080207815</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -977,46 +982,46 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>0.08404805900000001</v>
+        <v>-0.2139746633820842</v>
       </c>
       <c r="C13">
-        <v>0.158263319</v>
+        <v>-0.7044626671279796</v>
       </c>
       <c r="D13">
-        <v>1.294199582</v>
+        <v>-2.085647036919111</v>
       </c>
       <c r="E13">
-        <v>1.365673385</v>
+        <v>-0.774573281969745</v>
       </c>
       <c r="F13">
-        <v>1.622505078</v>
+        <v>-1.204105165622195</v>
       </c>
       <c r="G13">
-        <v>1.755307135</v>
+        <v>-1.790587872433676</v>
       </c>
       <c r="H13">
-        <v>1.446623332</v>
+        <v>-0.8412445560158462</v>
       </c>
       <c r="I13">
-        <v>1.6440003</v>
+        <v>-1.00745715188306</v>
       </c>
       <c r="J13">
-        <v>1.495672263</v>
+        <v>-0.6580804567079027</v>
       </c>
       <c r="K13">
-        <v>1.041723686</v>
+        <v>-0.4286910453839183</v>
       </c>
       <c r="L13">
-        <v>0.385273084</v>
+        <v>-0.2915545232227261</v>
       </c>
       <c r="M13">
-        <v>0.241502357</v>
+        <v>-0.1628719732754185</v>
       </c>
       <c r="N13">
-        <v>0.190681953</v>
+        <v>-0.0334356291279433</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -1024,46 +1029,46 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.8337010029999999</v>
+        <v>-0.937696286</v>
       </c>
       <c r="C14">
-        <v>-0.99310433</v>
+        <v>-1.015591623</v>
       </c>
       <c r="D14">
-        <v>-1.025872403</v>
+        <v>-0.608602128</v>
       </c>
       <c r="E14">
-        <v>-1.342536633</v>
+        <v>-1.158174718</v>
       </c>
       <c r="F14">
-        <v>-0.701073142</v>
+        <v>-0.8048887790000001</v>
       </c>
       <c r="G14">
-        <v>-0.62187626</v>
+        <v>-1.24772037</v>
       </c>
       <c r="H14">
-        <v>-0.967564037</v>
+        <v>-1.271167965</v>
       </c>
       <c r="I14">
-        <v>-0.233725884</v>
+        <v>-0.246935819</v>
       </c>
       <c r="J14">
-        <v>-0.967355328</v>
+        <v>-0.041770972</v>
       </c>
       <c r="K14">
-        <v>-0.234428497</v>
+        <v>-0.280753298</v>
       </c>
       <c r="L14">
-        <v>-0.310807545</v>
+        <v>-0.46378129</v>
       </c>
       <c r="M14">
-        <v>-0.235203542</v>
+        <v>-0.296611509</v>
       </c>
       <c r="N14">
-        <v>-0.05242556</v>
+        <v>-0.032517665</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1071,46 +1076,46 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>0.08650412199999999</v>
+        <v>-0.7261516585242036</v>
       </c>
       <c r="C15">
-        <v>0.16076415</v>
+        <v>-0.708529406368131</v>
       </c>
       <c r="D15">
-        <v>1.287529653</v>
+        <v>-0.4361873923187662</v>
       </c>
       <c r="E15">
-        <v>1.458507674</v>
+        <v>-0.5217290491349929</v>
       </c>
       <c r="F15">
-        <v>1.708264452</v>
+        <v>-0.6855108296681408</v>
       </c>
       <c r="G15">
-        <v>1.737302749</v>
+        <v>-1.479215207788048</v>
       </c>
       <c r="H15">
-        <v>1.454654867</v>
+        <v>-1.652506564090377</v>
       </c>
       <c r="I15">
-        <v>1.685926169</v>
+        <v>-0.3700793103049028</v>
       </c>
       <c r="J15">
-        <v>1.198936477</v>
+        <v>-0.395443007300101</v>
       </c>
       <c r="K15">
-        <v>1.009485194</v>
+        <v>-0.3867351735737296</v>
       </c>
       <c r="L15">
-        <v>0.6228660539999999</v>
+        <v>-0.005570281690596239</v>
       </c>
       <c r="M15">
-        <v>0.391809069</v>
+        <v>0.1983542129563711</v>
       </c>
       <c r="N15">
-        <v>0.180105296</v>
+        <v>0.454038615761895</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -1118,46 +1123,46 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.080592808</v>
+        <v>-0.898339942</v>
       </c>
       <c r="C16">
-        <v>0.154079561</v>
+        <v>-0.9166695420000001</v>
       </c>
       <c r="D16">
-        <v>0.950204087</v>
+        <v>-0.124501255</v>
       </c>
       <c r="E16">
-        <v>0.5333746429999999</v>
+        <v>0.389349156</v>
       </c>
       <c r="F16">
-        <v>0.669714496</v>
+        <v>1.017939856</v>
       </c>
       <c r="G16">
-        <v>1.32170149</v>
+        <v>1.065573911</v>
       </c>
       <c r="H16">
-        <v>0.394812815</v>
+        <v>1.109928244</v>
       </c>
       <c r="I16">
-        <v>0.060439413</v>
+        <v>0.875583775</v>
       </c>
       <c r="J16">
-        <v>0.590968691</v>
+        <v>0.875780095</v>
       </c>
       <c r="K16">
-        <v>0.584491591</v>
+        <v>1.330532029</v>
       </c>
       <c r="L16">
-        <v>0.7292046520000001</v>
+        <v>1.080667858</v>
       </c>
       <c r="M16">
-        <v>0.7106371220000001</v>
+        <v>0.87872014</v>
       </c>
       <c r="N16">
-        <v>0.752660914</v>
+        <v>0.4082125</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -1165,96 +1170,96 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B17">
-        <v>0.071232558</v>
+        <v>1.112077923941515</v>
       </c>
       <c r="C17">
-        <v>0.138899512</v>
+        <v>1.137187283022762</v>
       </c>
       <c r="D17">
-        <v>0.087817249</v>
+        <v>1.816349257204819</v>
       </c>
       <c r="E17">
-        <v>-0.7278435879999999</v>
+        <v>1.83863370029257</v>
       </c>
       <c r="F17">
-        <v>-0.582862181</v>
+        <v>2.121151532457759</v>
       </c>
       <c r="G17">
-        <v>-0.308798143</v>
+        <v>1.873380616886137</v>
       </c>
       <c r="H17">
-        <v>-0.926149853</v>
+        <v>2.251182816728566</v>
       </c>
       <c r="I17">
-        <v>-0.33105745</v>
+        <v>2.240347758734272</v>
       </c>
       <c r="J17">
-        <v>-0.084833862</v>
+        <v>2.209619352175399</v>
       </c>
       <c r="K17">
-        <v>-0.863395405</v>
+        <v>2.467857162570352</v>
       </c>
       <c r="L17">
-        <v>-1.828042485</v>
+        <v>1.882630143514583</v>
       </c>
       <c r="M17">
-        <v>-2.117518389</v>
+        <v>1.560192797568996</v>
       </c>
       <c r="N17">
-        <v>-2.407747106</v>
+        <v>1.36944824066759</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>-1.112874475</v>
+        <v>1.09846284716018</v>
       </c>
       <c r="C18">
-        <v>-1.212975938</v>
+        <v>1.123561183674226</v>
       </c>
       <c r="D18">
-        <v>-0.414435147</v>
+        <v>1.525158164547952</v>
       </c>
       <c r="E18">
-        <v>-0.9621724429999999</v>
+        <v>1.190229985899966</v>
       </c>
       <c r="F18">
-        <v>-0.612117153</v>
+        <v>1.144727242730383</v>
       </c>
       <c r="G18">
-        <v>0.329252037</v>
+        <v>0.9584396757252992</v>
       </c>
       <c r="H18">
-        <v>-0.694503537</v>
+        <v>0.6515114401502651</v>
       </c>
       <c r="I18">
-        <v>-0.9353955390000001</v>
+        <v>0.6428933796817899</v>
       </c>
       <c r="J18">
-        <v>-0.248126258</v>
+        <v>0.6004911621258092</v>
       </c>
       <c r="K18">
-        <v>-0.474603065</v>
+        <v>0.9391544659798</v>
       </c>
       <c r="L18">
-        <v>0.054106829</v>
+        <v>1.168192795304359</v>
       </c>
       <c r="M18">
-        <v>0.006944341999999999</v>
+        <v>1.099420116429678</v>
       </c>
       <c r="N18">
-        <v>0.09774738500000001</v>
+        <v>1.050510024761384</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
